--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal</t>
+          <t>Índice de masa corporal (tasa de respuesta: 97,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,85</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>24,79</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 26,27</t>
+          <t>25,21; 25,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,64; 26,45</t>
+          <t>25,63; 26,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 25,87</t>
+          <t>25,19; 25,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 24,6</t>
+          <t>23,68; 24,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 25,16</t>
+          <t>24,27; 25,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,88; 23,69</t>
+          <t>22,89; 23,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 25,3</t>
+          <t>24,5; 25,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,13; 25,73</t>
+          <t>25,15; 25,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,11; 24,65</t>
+          <t>24,09; 24,63</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,15</t>
+          <t>25,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,66; 26,68</t>
+          <t>25,47; 26,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 27,32</t>
+          <t>26,37; 27,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 27,0</t>
+          <t>25,93; 26,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 24,69</t>
+          <t>23,69; 24,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 25,77</t>
+          <t>24,89; 25,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 24,94</t>
+          <t>24,02; 24,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 25,4</t>
+          <t>24,65; 25,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 26,52</t>
+          <t>25,81; 26,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,67</t>
+          <t>24,91; 25,66</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,92</t>
+          <t>26,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,34</t>
+          <t>25,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,46</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,51; 27,37</t>
+          <t>26,4; 27,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,17; 29,74</t>
+          <t>27,14; 29,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 27,45</t>
+          <t>26,2; 27,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 26,06</t>
+          <t>24,93; 26,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,85; 26,54</t>
+          <t>24,91; 26,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 26,42</t>
+          <t>23,98; 26,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,12; 26,85</t>
+          <t>26,11; 26,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,72; 29,61</t>
+          <t>26,69; 29,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 26,85</t>
+          <t>25,62; 26,87</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,88</t>
+          <t>26,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,55</t>
+          <t>25,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,18</t>
+          <t>26,16</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 27,27</t>
+          <t>26,23; 27,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,62; 27,43</t>
+          <t>26,59; 27,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,12; 27,32</t>
+          <t>26,13; 27,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,15; 25,93</t>
+          <t>25,26; 26,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 31,96</t>
+          <t>25,61; 31,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,62; 26,93</t>
+          <t>25,54; 26,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,48</t>
+          <t>25,82; 26,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 30,5</t>
+          <t>26,34; 30,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 26,95</t>
+          <t>26,07; 26,94</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,63</t>
+          <t>26,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,27</t>
+          <t>26,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,07; 27,25</t>
+          <t>25,75; 26,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,62; 27,34</t>
+          <t>25,75; 27,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 27,15</t>
+          <t>25,55; 27,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 26,75</t>
+          <t>25,88; 27,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,31; 27,51</t>
+          <t>26,33; 27,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 28,3</t>
+          <t>26,1; 28,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,02; 26,77</t>
+          <t>25,97; 26,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,4; 27,3</t>
+          <t>26,39; 27,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 27,62</t>
+          <t>26,14; 27,65</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,3</t>
+          <t>23,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,52</t>
+          <t>24,55</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,03</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,63; 24,05</t>
+          <t>22,92; 25,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,67</t>
+          <t>23,23; 25,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 23,86</t>
+          <t>21,24; 23,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,01; 26,18</t>
+          <t>24,09; 25,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,68; 26,63</t>
+          <t>25,67; 26,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 24,86</t>
+          <t>23,18; 25,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 25,52</t>
+          <t>23,86; 24,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,21; 26,17</t>
+          <t>25,23; 26,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 24,22</t>
+          <t>22,67; 24,2</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,36</t>
+          <t>26,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>25,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,72</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,15; 26,56</t>
+          <t>25,86; 26,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,83; 26,33</t>
+          <t>25,8; 26,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,97; 25,39</t>
+          <t>24,81; 25,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,81; 29,1</t>
+          <t>25,82; 28,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,53; 25,08</t>
+          <t>24,52; 25,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,59; 25,88</t>
+          <t>25,38; 25,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,2; 28,1</t>
+          <t>26,24; 28,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,21; 25,59</t>
+          <t>25,21; 25,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>26,03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25,99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>25,54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>26,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>25,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,5</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>24,71</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23,25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>24,1</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,66</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>23,25</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,26</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>25,43</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24,67</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>24,79</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>25,42</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>24,67</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>24,38</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>25,64; 26,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25,19; 25,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25,64; 26,4</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>25,21; 25,92</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>25,63; 26,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>25,64; 26,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>25,19; 25,91</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>24,31; 25,22</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 23,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 23,63</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>23,68; 24,52</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>24,27; 25,14</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>22,9; 23,63</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>22,89; 23,64</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>25,18; 25,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 24,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 24,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>24,5; 25,07</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>25,15; 25,73</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 24,97</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>24,09; 24,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>26,77</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26,43</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25,74</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>25,97</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>26,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>25,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,43</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>25,36</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24,47</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,08</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>24,23</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>25,35</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,08</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,47</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>26,13</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,32</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,84</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>25,03</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,16</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,84</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>25,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>26,33; 27,23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 26,99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25,36; 26,14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>25,47; 26,56</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>26,37; 27,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>25,36; 26,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>25,93; 26,99</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>24,91; 25,83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 24,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23,68; 24,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>23,69; 24,78</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>24,89; 25,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>23,68; 24,57</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>24,02; 24,95</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>25,82; 26,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24,91; 25,66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 25,18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>24,65; 25,4</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>25,81; 26,49</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>24,56; 25,18</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>24,91; 25,66</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>27,24</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26,86</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26,5</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>26,81</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>28,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>26,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,86</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>25,72</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25,13</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>25,71</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>25,74</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>25,13</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>25,16</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>26,79</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,25</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,07</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>26,52</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>28,3</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>26,07</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>26,76; 27,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 27,49</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 26,98</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>26,4; 27,23</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>27,14; 29,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>26,04; 26,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 27,49</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>24,88; 26,52</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23,98; 26,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 26,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>24,93; 26,74</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>24,91; 26,56</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>24,41; 26,08</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23,98; 26,41</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>26,32; 27,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,62; 26,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 26,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>26,11; 26,91</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>26,69; 29,57</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>25,69; 26,51</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>25,62; 26,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>26,95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,68</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26,82</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>26,63</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>27,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>26,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,68</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>25,72</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26,21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25,12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>25,71</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>28,49</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>25,12</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>26,21</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>26,4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26,46</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,95</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>26,16</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>27,81</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>25,95</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>26,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>26,6; 27,32</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26,13; 27,36</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26,44; 27,25</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>26,23; 27,07</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>26,59; 27,41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>26,44; 27,25</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>26,13; 27,36</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>25,37; 26,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 26,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 25,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>25,26; 26,23</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>25,61; 31,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>24,66; 25,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>25,54; 26,92</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>26,14; 26,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 26,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25,66; 26,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>25,82; 26,48</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,34; 30,71</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>25,66; 26,27</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>26,07; 26,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>26,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26,41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>26,27</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>26,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>26,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>26,41</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>27,22</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27,01</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>26,46</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>26,97</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,96</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>27,01</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>27,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,79</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>26,39</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>26,85</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>26,2</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>26,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>26,03; 27,25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,55; 27,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 27,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>25,75; 26,84</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>25,75; 27,31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 27,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>25,55; 27,12</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>26,8; 27,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 28,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 26,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>25,88; 27,14</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26,33; 27,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>25,41; 26,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>26,1; 28,44</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>26,65; 27,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 27,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 26,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>25,97; 26,81</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>26,39; 27,3</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>25,81; 26,63</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>26,14; 27,65</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>24,11</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22,46</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24,38</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>23,65</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>24,26</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>24,38</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22,46</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>26,13</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24,05</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23,88</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>24,55</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>26,15</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,88</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,05</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>25,65</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23,46</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,1</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>24,3</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>25,67</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>24,1</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>23,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>23,15; 25,43</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 23,74</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 27,22</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>22,92; 25,09</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>23,23; 25,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>22,92; 27,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,24; 23,74</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>25,67; 26,54</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 25,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 25,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>24,09; 25,06</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>25,67; 26,59</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>22,74; 25,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>23,18; 25,03</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>25,25; 26,1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 24,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 25,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>23,86; 24,73</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>25,23; 26,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>23,15; 25,63</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>22,67; 24,2</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>26,51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26,06</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26,3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>26,08</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>26,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>26,3</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>26,06</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>25,9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24,79</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24,52</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>25,04</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>26,68</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>24,52</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>24,79</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>26,2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,44</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>25,54</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>26,82</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>25,44</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>25,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>26,29; 26,72</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 26,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 26,49</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>25,86; 26,28</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 28,1</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>26,11; 26,49</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 26,3</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>25,71; 26,09</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 25,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 24,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>24,81; 25,26</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>25,82; 28,92</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>24,28; 24,73</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>24,52; 25,07</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>26,06; 26,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 25,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,29; 25,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>25,38; 25,7</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>26,24; 28,13</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>25,29; 25,6</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,21; 25,6</t>
         </is>
       </c>
     </row>
